--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,299 +38,299 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
+    <t>a3_min</t>
+  </si>
+  <si>
+    <t>Kuinka paljon käytät aikaasi internetissä päivässä?</t>
+  </si>
+  <si>
+    <t>jatkuva</t>
+  </si>
+  <si>
+    <t>0–</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>b26</t>
+  </si>
+  <si>
+    <t>Mihin asettaisit itsesi asteikolla 0-10 (vasemmisto --&gt; oikeisto)</t>
+  </si>
+  <si>
+    <t>0–10</t>
+  </si>
+  <si>
+    <t>98, 99</t>
+  </si>
+  <si>
+    <t>Vasemmisto</t>
+  </si>
+  <si>
+    <t>Oikeisto</t>
+  </si>
+  <si>
+    <t>b27</t>
+  </si>
+  <si>
+    <t>Kuinka tyytyväinen olet elämääsi?</t>
+  </si>
+  <si>
+    <t>Äärimmäisen tyytymätön</t>
+  </si>
+  <si>
+    <t>Äärimmäisen tyytyväinen</t>
+  </si>
+  <si>
+    <t>b6–b12</t>
+  </si>
+  <si>
+    <t>Kuinka paljon luotat seuraaviin tahoihin</t>
+  </si>
+  <si>
+    <t>En luota ollenkaan</t>
+  </si>
+  <si>
+    <t>Luotan täysin</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>Kuinka onnellinen olet?</t>
+  </si>
+  <si>
+    <t>Erittäin onneton</t>
+  </si>
+  <si>
+    <t>Erittäin onnellinen</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>Kuinka turvalliseksi tunnet olosi kävellessäsi naapurustossa?</t>
+  </si>
+  <si>
+    <t>järjestys</t>
+  </si>
+  <si>
+    <t>1–4</t>
+  </si>
+  <si>
+    <t>Erittäin turvalliseksi</t>
+  </si>
+  <si>
+    <t>Turvalliseksi</t>
+  </si>
+  <si>
+    <t>Turvattomaksi</t>
+  </si>
+  <si>
+    <t>Erittäin turvattomaksi</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>Minkälainen terveytesi on yleisesti ottaen?</t>
+  </si>
+  <si>
+    <t>8, 9</t>
+  </si>
+  <si>
+    <t>Erittäin hyvä</t>
+  </si>
+  <si>
+    <t>Hyvä</t>
+  </si>
+  <si>
+    <t>Kohtuullinen</t>
+  </si>
+  <si>
+    <t>Huono</t>
+  </si>
+  <si>
+    <t>Erittäin huono</t>
+  </si>
+  <si>
+    <t>d24</t>
+  </si>
+  <si>
+    <t>Kuinka huolestunut olet ilmastonmuutoksesta?</t>
+  </si>
+  <si>
+    <t>1–5</t>
+  </si>
+  <si>
+    <t>En lainkaan huolestunut</t>
+  </si>
+  <si>
+    <t>En kovin huolestunut</t>
+  </si>
+  <si>
+    <t>Jonkin verran huolestunut</t>
+  </si>
+  <si>
+    <t>Erittäin huolestunut</t>
+  </si>
+  <si>
+    <t>Äärimmäisen huolestunut</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>Minkälainen eläkeläisten elintaso mielestäsi on?</t>
+  </si>
+  <si>
     <t>f11</t>
   </si>
   <si>
-    <t>a3_min</t>
+    <t>Siviilisääty</t>
+  </si>
+  <si>
+    <t>luokittelu</t>
+  </si>
+  <si>
+    <t>1–6</t>
+  </si>
+  <si>
+    <t>Avioliitto</t>
+  </si>
+  <si>
+    <t>Rekisteröity parisuhde</t>
+  </si>
+  <si>
+    <t>Asumusero (yhä virallisesti naimisissa)</t>
+  </si>
+  <si>
+    <t>Eronnut/rekisteröity parisuhde purettu</t>
+  </si>
+  <si>
+    <t>Leski/Rekisteröidyn parisuhteen toinen osapuoli kuollut</t>
+  </si>
+  <si>
+    <t>Ei mikään edellä mainituista</t>
+  </si>
+  <si>
+    <t>f14</t>
+  </si>
+  <si>
+    <t>Asuinympäristö</t>
+  </si>
+  <si>
+    <t>Suuri kaupunki (yli 100 000 asukasta)</t>
+  </si>
+  <si>
+    <t>Suuren kaupungin lähiö tai lähiseutu</t>
+  </si>
+  <si>
+    <t>Pieni/keskikokoinen kaupunki (20 000-100 000 asukasta)</t>
+  </si>
+  <si>
+    <t>Pienempi taajama/kunta (&lt; 20 000 asukasta)</t>
+  </si>
+  <si>
+    <t>Maaseutu/haja-asutusalue</t>
+  </si>
+  <si>
+    <t>f15</t>
+  </si>
+  <si>
+    <t>Korkein suorittamasi koulutusaste</t>
+  </si>
+  <si>
+    <t>1–15</t>
+  </si>
+  <si>
+    <t>Vähemmän kuin peruskoulun ala-aste tai vähemmän kuin kansakoulu</t>
+  </si>
+  <si>
+    <t>Peruskoulun ala-aste, kansakoulu tai kansalaiskoulu</t>
+  </si>
+  <si>
+    <t>Peruskoulun yläaste tai keskikoulu</t>
+  </si>
+  <si>
+    <t>Lukio, ylioppislastutkinto</t>
+  </si>
+  <si>
+    <t>Ammatillinen perustutkinto, ammattitutkinto</t>
+  </si>
+  <si>
+    <t>Sekä ylioppilas- että ammattitutkinto</t>
+  </si>
+  <si>
+    <t>Erikoisammattitutkinto</t>
+  </si>
+  <si>
+    <t>Ammatillinen opintoasteen tutkinto</t>
+  </si>
+  <si>
+    <t>Amm.kork.koulu tai amm. Korkea-asteen tutkinto</t>
+  </si>
+  <si>
+    <t>Alempi korkeakoulututkinto, kandidaatin tutkinto</t>
+  </si>
+  <si>
+    <t>Ylempi ammattikorkeakoulun tutkinto</t>
+  </si>
+  <si>
+    <t>Ylempi korkeakoulututkinto</t>
+  </si>
+  <si>
+    <t>Lisensiaatin tutkinto</t>
+  </si>
+  <si>
+    <t>Tohtorin tutkinto</t>
+  </si>
+  <si>
+    <t>Joku muu</t>
+  </si>
+  <si>
+    <t>f17a_6</t>
+  </si>
+  <si>
+    <t>Eläkkeellä</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Kyllä</t>
+  </si>
+  <si>
+    <t>f2_1</t>
+  </si>
+  <si>
+    <t>Vastaajan sukupuoli</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Mies</t>
+  </si>
+  <si>
+    <t>Nainen</t>
   </si>
   <si>
     <t>f3_1</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>f2_1</t>
-  </si>
-  <si>
-    <t>d24</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>b27</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>f17a_6</t>
-  </si>
-  <si>
-    <t>b26</t>
-  </si>
-  <si>
-    <t>b6–b12</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Syntymävuotesi</t>
-  </si>
-  <si>
-    <t>Vastaajan sukupuoli</t>
-  </si>
-  <si>
-    <t>8, 9</t>
-  </si>
-  <si>
-    <t>98, 99</t>
-  </si>
-  <si>
-    <t>Siviilisääty</t>
-  </si>
-  <si>
-    <t>Kuinka paljon käytät aikaasi internetissä päivässä?</t>
-  </si>
-  <si>
-    <t>Kuinka paljon luotat seuraaviin tahoihin</t>
-  </si>
-  <si>
-    <t>0–10</t>
-  </si>
-  <si>
-    <t>Mihin asettaisit itsesi asteikolla 0-10 (vasemmisto --&gt; oikeisto)</t>
-  </si>
-  <si>
-    <t>Kuinka tyytyväinen olet elämääsi?</t>
-  </si>
-  <si>
-    <t>Kuinka onnellinen olet?</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Kuinka turvalliseksi tunnet olosi kävellessäsi naapurustossa?</t>
-  </si>
-  <si>
-    <t>1–4</t>
-  </si>
-  <si>
-    <t>Minkälainen terveytesi on yleisesti ottaen?</t>
-  </si>
-  <si>
-    <t>Kuinka huolestunut olet ilmastonmuutoksesta?</t>
-  </si>
-  <si>
-    <t>1–5</t>
-  </si>
-  <si>
-    <t>Minkälainen eläkeläisten elintaso mielestäsi on?</t>
-  </si>
-  <si>
-    <t>Asuinympäristö</t>
-  </si>
-  <si>
-    <t>Korkein suorittamasi koulutusaste</t>
-  </si>
-  <si>
-    <t>1–15</t>
-  </si>
-  <si>
-    <t>Eläkkeellä</t>
-  </si>
-  <si>
-    <t>0, 1</t>
-  </si>
-  <si>
-    <t>1–6</t>
-  </si>
-  <si>
-    <t>jatkuva</t>
-  </si>
-  <si>
-    <t>järjestys</t>
-  </si>
-  <si>
-    <t>luokittelu</t>
-  </si>
-  <si>
-    <t>0–</t>
-  </si>
-  <si>
-    <t>Vasemmisto</t>
-  </si>
-  <si>
-    <t>Oikeisto</t>
-  </si>
-  <si>
-    <t>Äärimmäisen tyytymätön</t>
-  </si>
-  <si>
-    <t>Äärimmäisen tyytyväinen</t>
-  </si>
-  <si>
-    <t>En luota ollenkaan</t>
-  </si>
-  <si>
-    <t>Luotan täysin</t>
-  </si>
-  <si>
-    <t>Erittäin onneton</t>
-  </si>
-  <si>
-    <t>Erittäin onnellinen</t>
-  </si>
-  <si>
-    <t>Erittäin turvalliseksi</t>
-  </si>
-  <si>
-    <t>Turvalliseksi</t>
-  </si>
-  <si>
-    <t>Turvattomaksi</t>
-  </si>
-  <si>
-    <t>Erittäin turvattomaksi</t>
-  </si>
-  <si>
-    <t>Erittäin hyvä</t>
-  </si>
-  <si>
-    <t>Hyvä</t>
-  </si>
-  <si>
-    <t>Kohtuullinen</t>
-  </si>
-  <si>
-    <t>Huono</t>
-  </si>
-  <si>
-    <t>Erittäin huono</t>
-  </si>
-  <si>
-    <t>En lainkaan huolestunut</t>
-  </si>
-  <si>
-    <t>En kovin huolestunut</t>
-  </si>
-  <si>
-    <t>Jonkin verran huolestunut</t>
-  </si>
-  <si>
-    <t>Erittäin huolestunut</t>
-  </si>
-  <si>
-    <t>Äärimmäisen huolestunut</t>
-  </si>
-  <si>
-    <t>Avioliitto</t>
-  </si>
-  <si>
-    <t>Rekisteröity parisuhde</t>
-  </si>
-  <si>
-    <t>Asumusero (yhä virallisesti naimisissa)</t>
-  </si>
-  <si>
-    <t>Eronnut/rekisteröity parisuhde purettu</t>
-  </si>
-  <si>
-    <t>Leski/Rekisteröidyn parisuhteen toinen osapuoli kuollut</t>
-  </si>
-  <si>
-    <t>Ei mikään edellä mainituista</t>
-  </si>
-  <si>
-    <t>Suuri kaupunki (yli 100 000 asukasta)</t>
-  </si>
-  <si>
-    <t>Suuren kaupungin lähiö tai lähiseutu</t>
-  </si>
-  <si>
-    <t>Pieni/keskikokoinen kaupunki (20 000-100 000 asukasta)</t>
-  </si>
-  <si>
-    <t>Pienempi taajama/kunta (&lt; 20 000 asukasta)</t>
-  </si>
-  <si>
-    <t>Maaseutu/haja-asutusalue</t>
-  </si>
-  <si>
-    <t>Vähemmän kuin peruskoulun ala-aste tai vähemmän kuin kansakoulu</t>
-  </si>
-  <si>
-    <t>Peruskoulun ala-aste, kansakoulu tai kansalaiskoulu</t>
-  </si>
-  <si>
-    <t>Peruskoulun yläaste tai keskikoulu</t>
-  </si>
-  <si>
-    <t>Lukio, ylioppislastutkinto</t>
-  </si>
-  <si>
-    <t>Ammatillinen perustutkinto, ammattitutkinto</t>
-  </si>
-  <si>
-    <t>Sekä ylioppilas- että ammattitutkinto</t>
-  </si>
-  <si>
-    <t>Erikoisammattitutkinto</t>
-  </si>
-  <si>
-    <t>Ammatillinen opintoasteen tutkinto</t>
-  </si>
-  <si>
-    <t>Amm.kork.koulu tai amm. Korkea-asteen tutkinto</t>
-  </si>
-  <si>
-    <t>Alempi korkeakoulututkinto, kandidaatin tutkinto</t>
-  </si>
-  <si>
-    <t>Ylempi ammattikorkeakoulun tutkinto</t>
-  </si>
-  <si>
-    <t>Ylempi korkeakoulututkinto</t>
-  </si>
-  <si>
-    <t>Lisensiaatin tutkinto</t>
-  </si>
-  <si>
-    <t>Tohtorin tutkinto</t>
-  </si>
-  <si>
-    <t>Joku muu</t>
-  </si>
-  <si>
-    <t>Kyllä</t>
-  </si>
-  <si>
-    <t>Ei</t>
-  </si>
-  <si>
-    <t>Mies</t>
-  </si>
-  <si>
-    <t>Nainen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,17 +707,17 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.36328125" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -725,920 +725,920 @@
       <c r="E1" s="1"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F32" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F35" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F42" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
         <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
         <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
         <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
         <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2">
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
